--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="780" yWindow="945" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Coding Round" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -2013,7 +2013,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2023,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3211,77 +3211,77 @@
       <c r="A114" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>3</v>
+      <c r="C114" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>3</v>
+      <c r="C115" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>3</v>
+      <c r="C116" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>3</v>
+      <c r="C117" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>3</v>
+      <c r="C118" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>3</v>
+      <c r="C119" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>3</v>
+      <c r="C120" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="471">
   <si>
     <t>Topic:</t>
   </si>
@@ -1470,6 +1470,9 @@
   </si>
   <si>
     <t>Allocate minimum number of pages</t>
+  </si>
+  <si>
+    <t>Comments in Solution</t>
   </si>
 </sst>
 </file>
@@ -1659,10 +1662,6 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1705,6 +1704,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2013,7 +2018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2021,5153 +2026,5160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C492"/>
+  <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="108.25" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="8" customFormat="1" ht="45" customHeight="1">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="45" customHeight="1">
+      <c r="B1" s="7" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="21">
-      <c r="A4" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="21">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="15" t="s">
+      <c r="D4" s="21" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:4" ht="21">
+      <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:4" ht="21">
+      <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:4" ht="21">
+      <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:4" ht="21">
+      <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:4" ht="21">
+      <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:4" ht="21">
+      <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:4" ht="21">
+      <c r="A15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:4" ht="21">
+      <c r="A16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">
-      <c r="B42" s="5"/>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="21">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="21">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="21">
-      <c r="B54" s="13"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="21">
-      <c r="A55" s="4"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="21">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="21">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="21">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="21">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="21">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="21">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="21">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="21">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="21">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="21">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="21">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="21">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="21">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="21">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="21">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="21">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="21">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="21">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="21">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="21">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="21">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="21">
-      <c r="A97" s="4" t="s">
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="21">
+      <c r="A97" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="21">
-      <c r="A98" s="4" t="s">
+      <c r="C97" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="21">
+      <c r="A98" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="21">
-      <c r="B99" s="13"/>
-    </row>
-    <row r="100" spans="1:3" ht="21">
-      <c r="A100" s="6"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="19" t="s">
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="21">
+      <c r="B99" s="11"/>
+    </row>
+    <row r="100" spans="1:4" ht="21">
+      <c r="A100" s="4"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" ht="21">
+      <c r="A101" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21">
-      <c r="A102" s="19" t="s">
+    <row r="102" spans="1:4" ht="21">
+      <c r="A102" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21">
-      <c r="A103" s="19" t="s">
+    <row r="103" spans="1:4" ht="21">
+      <c r="A103" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21">
-      <c r="A104" s="19" t="s">
+    <row r="104" spans="1:4" ht="21">
+      <c r="A104" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21">
-      <c r="A105" s="19" t="s">
+    <row r="105" spans="1:4" ht="21">
+      <c r="A105" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="21">
-      <c r="A106" s="19" t="s">
+      <c r="C105" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="21">
+      <c r="A106" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="21">
-      <c r="A107" s="19" t="s">
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="21">
+      <c r="A107" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
-      <c r="A108" s="19" t="s">
+    <row r="108" spans="1:4" ht="21">
+      <c r="A108" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="9" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="21">
-      <c r="A109" s="19" t="s">
+      <c r="D108" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="21">
+      <c r="A109" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
-      <c r="A110" s="19" t="s">
+    <row r="110" spans="1:4" ht="21">
+      <c r="A110" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
-      <c r="A111" s="19" t="s">
+    <row r="111" spans="1:4" ht="21">
+      <c r="A111" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
-      <c r="A112" s="19" t="s">
+    <row r="112" spans="1:4" ht="21">
+      <c r="A112" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B113" s="21" t="s">
+      <c r="B113" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="21">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21">
-      <c r="A118" s="19" t="s">
+      <c r="A118" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="21">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="21">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="9" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="21">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="21">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="21">
-      <c r="A123" s="19" t="s">
+      <c r="A123" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="21">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="21">
-      <c r="A125" s="19" t="s">
+      <c r="A125" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="21">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="21">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="21">
-      <c r="A128" s="19" t="s">
+      <c r="A128" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="21">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="21">
-      <c r="A130" s="19" t="s">
+      <c r="A130" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="21">
-      <c r="A131" s="19" t="s">
+      <c r="A131" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="21">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="21">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="21">
-      <c r="A134" s="19" t="s">
+      <c r="A134" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="21">
-      <c r="A135" s="19" t="s">
+      <c r="A135" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="21">
-      <c r="A136" s="19" t="s">
+      <c r="A136" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="21">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="21">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="21">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
-      <c r="A140" s="19" t="s">
+      <c r="A140" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21">
-      <c r="A141" s="19" t="s">
+      <c r="A141" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
-      <c r="B143" s="5"/>
-      <c r="C143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3" ht="21">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B144" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C144" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B147" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B150" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C150" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B151" s="18" t="s">
+      <c r="B151" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C152" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C153" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B155" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="21">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="B159" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="21">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B161" s="18" t="s">
+      <c r="B161" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="21">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="B162" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C163" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B164" s="18" t="s">
+      <c r="B164" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C164" s="8" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="12" t="s">
+      <c r="B165" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="21">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B166" s="12" t="s">
+      <c r="B166" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="21">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B167" s="12" t="s">
+      <c r="B167" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="21">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B168" s="12" t="s">
+      <c r="B168" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="21">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B169" s="13" t="s">
+      <c r="B169" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B170" s="13" t="s">
+      <c r="B170" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="21">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="21">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B172" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="21">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="21">
-      <c r="A174" s="6" t="s">
+      <c r="A174" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="21">
-      <c r="A175" s="6" t="s">
+      <c r="A175" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="21">
-      <c r="A176" s="6" t="s">
+      <c r="A176" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="6" t="s">
+      <c r="A177" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
-      <c r="A178" s="6" t="s">
+      <c r="A178" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
-      <c r="A179" s="6" t="s">
+      <c r="A179" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B179" s="12" t="s">
+      <c r="B179" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
-      <c r="B181" s="5"/>
-      <c r="C181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="1"/>
     </row>
     <row r="182" spans="1:3" ht="21">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="B182" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B183" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="B184" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B186" s="12" t="s">
+      <c r="B186" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="21">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B188" s="12" t="s">
+      <c r="B188" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="21">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B189" s="12" t="s">
+      <c r="B189" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="B190" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="21">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B191" s="12" t="s">
+      <c r="B191" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="21">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B192" s="12" t="s">
+      <c r="B192" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="21">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B193" s="12" t="s">
+      <c r="B193" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="21">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B194" s="12" t="s">
+      <c r="B194" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="21">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B195" s="12" t="s">
+      <c r="B195" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B196" s="12" t="s">
+      <c r="B196" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="21">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B197" s="12" t="s">
+      <c r="B197" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="21">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B198" s="12" t="s">
+      <c r="B198" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B199" s="12" t="s">
+      <c r="B199" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="21">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B200" s="12" t="s">
+      <c r="B200" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="21">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B201" s="12" t="s">
+      <c r="B201" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="21">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B202" s="12" t="s">
+      <c r="B202" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="21">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B203" s="12" t="s">
+      <c r="B203" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="21">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B204" s="12" t="s">
+      <c r="B204" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="21">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B205" s="12" t="s">
+      <c r="B205" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="21">
-      <c r="A206" s="4" t="s">
+      <c r="A206" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B206" s="12" t="s">
+      <c r="B206" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="21">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B207" s="12" t="s">
+      <c r="B207" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B208" s="12" t="s">
+      <c r="B208" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="21">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B209" s="12" t="s">
+      <c r="B209" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="B210" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="21">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B211" s="12" t="s">
+      <c r="B211" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="21">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B212" s="12" t="s">
+      <c r="B212" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="21">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B213" s="12" t="s">
+      <c r="B213" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B214" s="12" t="s">
+      <c r="B214" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B215" s="12" t="s">
+      <c r="B215" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="21">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B216" s="12" t="s">
+      <c r="B216" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="21">
-      <c r="A217" s="6"/>
-      <c r="B217" s="13"/>
-      <c r="C217" s="3"/>
+      <c r="A217" s="4"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="1"/>
     </row>
     <row r="218" spans="1:3" ht="21">
-      <c r="A218" s="6"/>
-      <c r="B218" s="13"/>
-      <c r="C218" s="3"/>
+      <c r="A218" s="4"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="1"/>
     </row>
     <row r="219" spans="1:3" ht="21">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B219" s="12" t="s">
+      <c r="B219" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="21">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B220" s="12" t="s">
+      <c r="B220" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="21">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B221" s="12" t="s">
+      <c r="B221" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B222" s="12" t="s">
+      <c r="B222" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B223" s="12" t="s">
+      <c r="B223" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B224" s="12" t="s">
+      <c r="B224" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="21">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B225" s="16" t="s">
+      <c r="B225" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B226" s="12" t="s">
+      <c r="B226" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B227" s="12" t="s">
+      <c r="B227" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="21">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B228" s="12" t="s">
+      <c r="B228" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="21">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B229" s="12" t="s">
+      <c r="B229" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="21">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B230" s="12" t="s">
+      <c r="B230" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="21">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B231" s="12" t="s">
+      <c r="B231" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="21">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B232" s="12" t="s">
+      <c r="B232" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="21">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B233" s="12" t="s">
+      <c r="B233" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="21">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B234" s="12" t="s">
+      <c r="B234" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B235" s="12" t="s">
+      <c r="B235" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="21">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B236" s="12" t="s">
+      <c r="B236" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="21">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B237" s="12" t="s">
+      <c r="B237" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="4" t="s">
+      <c r="A238" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B238" s="12" t="s">
+      <c r="B238" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="21">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B239" s="12" t="s">
+      <c r="B239" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="21">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B240" s="12" t="s">
+      <c r="B240" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="21">
-      <c r="B241" s="13"/>
-      <c r="C241" s="3"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="1"/>
     </row>
     <row r="242" spans="1:3" ht="21">
-      <c r="B242" s="13"/>
-      <c r="C242" s="3"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="1"/>
     </row>
     <row r="243" spans="1:3" ht="21">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B243" s="12" t="s">
+      <c r="B243" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="21">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B244" s="12" t="s">
+      <c r="B244" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="21">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B245" s="12" t="s">
+      <c r="B245" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="21">
-      <c r="A246" s="4" t="s">
+      <c r="A246" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B246" s="12" t="s">
+      <c r="B246" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="21">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B247" s="12" t="s">
+      <c r="B247" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="21">
-      <c r="A248" s="4" t="s">
+      <c r="A248" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B248" s="12" t="s">
+      <c r="B248" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="21">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B249" s="12" t="s">
+      <c r="B249" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="21">
-      <c r="A250" s="4" t="s">
+      <c r="A250" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B250" s="12" t="s">
+      <c r="B250" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="21">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B251" s="12" t="s">
+      <c r="B251" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="21">
-      <c r="A252" s="4" t="s">
+      <c r="A252" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B252" s="12" t="s">
+      <c r="B252" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="21">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B253" s="12" t="s">
+      <c r="B253" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="21">
-      <c r="A254" s="4" t="s">
+      <c r="A254" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B254" s="12" t="s">
+      <c r="B254" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="21">
-      <c r="A255" s="4" t="s">
+      <c r="A255" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B255" s="12" t="s">
+      <c r="B255" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="21">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B256" s="12" t="s">
+      <c r="B256" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C256" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="21">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B257" s="12" t="s">
+      <c r="B257" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="21">
-      <c r="A258" s="4" t="s">
+      <c r="A258" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B258" s="12" t="s">
+      <c r="B258" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="21">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B259" s="12" t="s">
+      <c r="B259" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="21">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B260" s="12" t="s">
+      <c r="B260" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="21">
-      <c r="A261" s="4" t="s">
+      <c r="A261" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B261" s="12" t="s">
+      <c r="B261" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="21">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B262" s="12" t="s">
+      <c r="B262" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="21">
-      <c r="A263" s="4" t="s">
+      <c r="A263" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B263" s="12" t="s">
+      <c r="B263" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="21">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B264" s="12" t="s">
+      <c r="B264" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C264" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="21">
-      <c r="A265" s="4" t="s">
+      <c r="A265" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B265" s="12" t="s">
+      <c r="B265" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="21">
-      <c r="A266" s="4" t="s">
+      <c r="A266" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B266" s="12" t="s">
+      <c r="B266" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="21">
-      <c r="A267" s="4" t="s">
+      <c r="A267" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B267" s="12" t="s">
+      <c r="B267" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="21">
-      <c r="A268" s="4" t="s">
+      <c r="A268" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B268" s="12" t="s">
+      <c r="B268" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="21">
-      <c r="A269" s="4" t="s">
+      <c r="A269" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B269" s="12" t="s">
+      <c r="B269" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="21">
-      <c r="A270" s="4" t="s">
+      <c r="A270" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B270" s="12" t="s">
+      <c r="B270" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="21">
-      <c r="A271" s="4" t="s">
+      <c r="A271" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B271" s="12" t="s">
+      <c r="B271" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="21">
-      <c r="A272" s="4" t="s">
+      <c r="A272" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B272" s="12" t="s">
+      <c r="B272" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="21">
-      <c r="A273" s="4" t="s">
+      <c r="A273" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B273" s="12" t="s">
+      <c r="B273" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="21">
-      <c r="A274" s="4" t="s">
+      <c r="A274" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B274" s="12" t="s">
+      <c r="B274" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B275" s="12" t="s">
+      <c r="B275" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B276" s="12" t="s">
+      <c r="B276" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">
-      <c r="A277" s="4" t="s">
+      <c r="A277" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B277" s="12" t="s">
+      <c r="B277" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="21">
-      <c r="B278" s="13"/>
-      <c r="C278" s="3"/>
+      <c r="B278" s="11"/>
+      <c r="C278" s="1"/>
     </row>
     <row r="279" spans="1:3" ht="21">
-      <c r="B279" s="13"/>
-      <c r="C279" s="3"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="1"/>
     </row>
     <row r="280" spans="1:3" ht="21">
-      <c r="A280" s="4" t="s">
+      <c r="A280" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B280" s="12" t="s">
+      <c r="B280" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">
-      <c r="A281" s="4" t="s">
+      <c r="A281" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B281" s="12" t="s">
+      <c r="B281" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C281" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="21">
-      <c r="A282" s="4" t="s">
+      <c r="A282" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B282" s="12" t="s">
+      <c r="B282" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="21">
-      <c r="A283" s="4" t="s">
+      <c r="A283" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B283" s="12" t="s">
+      <c r="B283" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C283" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="21">
-      <c r="A284" s="4" t="s">
+      <c r="A284" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B284" s="12" t="s">
+      <c r="B284" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="21">
-      <c r="A285" s="4" t="s">
+      <c r="A285" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B285" s="12" t="s">
+      <c r="B285" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C285" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="21">
-      <c r="A286" s="4" t="s">
+      <c r="A286" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B286" s="12" t="s">
+      <c r="B286" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="21">
-      <c r="A287" s="4" t="s">
+      <c r="A287" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B287" s="12" t="s">
+      <c r="B287" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="21">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B288" s="12" t="s">
+      <c r="B288" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C288" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="21">
-      <c r="A289" s="4" t="s">
+      <c r="A289" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B289" s="12" t="s">
+      <c r="B289" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="21">
-      <c r="A290" s="4" t="s">
+      <c r="A290" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B290" s="12" t="s">
+      <c r="B290" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="21">
-      <c r="A291" s="4" t="s">
+      <c r="A291" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B291" s="12" t="s">
+      <c r="B291" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C291" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="21">
-      <c r="A292" s="4" t="s">
+      <c r="A292" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B292" s="12" t="s">
+      <c r="B292" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="21">
-      <c r="A293" s="4" t="s">
+      <c r="A293" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B293" s="12" t="s">
+      <c r="B293" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="21">
-      <c r="A294" s="4" t="s">
+      <c r="A294" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B294" s="12" t="s">
+      <c r="B294" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C294" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="21">
-      <c r="A295" s="4" t="s">
+      <c r="A295" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B295" s="12" t="s">
+      <c r="B295" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C295" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="4" t="s">
+      <c r="A296" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B296" s="12" t="s">
+      <c r="B296" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C296" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
-      <c r="A297" s="4" t="s">
+      <c r="A297" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B297" s="12" t="s">
+      <c r="B297" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="21">
-      <c r="A298" s="4" t="s">
+      <c r="A298" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B298" s="12" t="s">
+      <c r="B298" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C298" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21">
-      <c r="B299" s="13"/>
-      <c r="C299" s="3"/>
+      <c r="B299" s="11"/>
+      <c r="C299" s="1"/>
     </row>
     <row r="300" spans="1:3" ht="21">
-      <c r="B300" s="13"/>
-      <c r="C300" s="3"/>
+      <c r="B300" s="11"/>
+      <c r="C300" s="1"/>
     </row>
     <row r="301" spans="1:3" ht="21">
-      <c r="A301" s="4" t="s">
+      <c r="A301" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B301" s="12" t="s">
+      <c r="B301" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
-      <c r="A302" s="4" t="s">
+      <c r="A302" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B302" s="12" t="s">
+      <c r="B302" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C302" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">
-      <c r="A303" s="4" t="s">
+      <c r="A303" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B303" s="12" t="s">
+      <c r="B303" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
-      <c r="A304" s="4" t="s">
+      <c r="A304" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B304" s="12" t="s">
+      <c r="B304" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="21">
-      <c r="A305" s="4" t="s">
+      <c r="A305" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B305" s="12" t="s">
+      <c r="B305" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C305" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="21">
-      <c r="A306" s="4" t="s">
+      <c r="A306" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B306" s="12" t="s">
+      <c r="B306" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C306" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="21">
-      <c r="A307" s="4" t="s">
+      <c r="A307" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B307" s="12" t="s">
+      <c r="B307" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C307" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">
-      <c r="A308" s="4" t="s">
+      <c r="A308" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B308" s="12" t="s">
+      <c r="B308" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C308" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="21">
-      <c r="A309" s="4" t="s">
+      <c r="A309" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B309" s="12" t="s">
+      <c r="B309" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C309" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="21">
-      <c r="A310" s="4" t="s">
+      <c r="A310" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B310" s="12" t="s">
+      <c r="B310" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C310" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">
-      <c r="A311" s="4" t="s">
+      <c r="A311" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B311" s="12" t="s">
+      <c r="B311" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C311" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="21">
-      <c r="A312" s="4" t="s">
+      <c r="A312" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B312" s="12" t="s">
+      <c r="B312" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C312" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="21">
-      <c r="A313" s="4" t="s">
+      <c r="A313" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B313" s="12" t="s">
+      <c r="B313" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C313" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="21">
-      <c r="A314" s="4" t="s">
+      <c r="A314" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B314" s="16" t="s">
+      <c r="B314" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C314" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">
-      <c r="A315" s="4" t="s">
+      <c r="A315" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B315" s="12" t="s">
+      <c r="B315" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C315" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="21">
-      <c r="A316" s="4" t="s">
+      <c r="A316" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B316" s="12" t="s">
+      <c r="B316" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C316" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="21">
-      <c r="A317" s="4" t="s">
+      <c r="A317" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B317" s="12" t="s">
+      <c r="B317" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C317" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="21">
-      <c r="A318" s="4" t="s">
+      <c r="A318" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B318" s="12" t="s">
+      <c r="B318" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="21">
-      <c r="A319" s="4" t="s">
+      <c r="A319" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B319" s="12" t="s">
+      <c r="B319" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C319" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="21">
-      <c r="A320" s="4" t="s">
+      <c r="A320" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B320" s="12" t="s">
+      <c r="B320" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="21">
-      <c r="A321" s="4" t="s">
+      <c r="A321" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B321" s="12" t="s">
+      <c r="B321" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C321" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="21">
-      <c r="A322" s="4" t="s">
+      <c r="A322" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B322" s="12" t="s">
+      <c r="B322" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="21">
-      <c r="A323" s="4" t="s">
+      <c r="A323" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B323" s="12" t="s">
+      <c r="B323" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="21">
-      <c r="A324" s="4" t="s">
+      <c r="A324" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B324" s="12" t="s">
+      <c r="B324" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C324" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="21">
-      <c r="A325" s="4" t="s">
+      <c r="A325" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B325" s="12" t="s">
+      <c r="B325" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C325" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="21">
-      <c r="A326" s="4" t="s">
+      <c r="A326" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B326" s="12" t="s">
+      <c r="B326" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C326" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="21">
-      <c r="A327" s="4" t="s">
+      <c r="A327" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B327" s="12" t="s">
+      <c r="B327" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="C327" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="21">
-      <c r="A328" s="4" t="s">
+      <c r="A328" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B328" s="12" t="s">
+      <c r="B328" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C328" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="21">
-      <c r="A329" s="4" t="s">
+      <c r="A329" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B329" s="12" t="s">
+      <c r="B329" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C329" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="21">
-      <c r="A330" s="4" t="s">
+      <c r="A330" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B330" s="12" t="s">
+      <c r="B330" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C330" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="21">
-      <c r="A331" s="4" t="s">
+      <c r="A331" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B331" s="12" t="s">
+      <c r="B331" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
-      <c r="A332" s="4" t="s">
+      <c r="A332" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B332" s="12" t="s">
+      <c r="B332" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C332" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="21">
-      <c r="A333" s="4" t="s">
+      <c r="A333" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B333" s="12" t="s">
+      <c r="B333" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C333" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="21">
-      <c r="A334" s="4" t="s">
+      <c r="A334" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B334" s="12" t="s">
+      <c r="B334" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C334" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="21">
-      <c r="A335" s="4" t="s">
+      <c r="A335" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B335" s="12" t="s">
+      <c r="B335" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C335" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="4" t="s">
+      <c r="A336" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B336" s="12" t="s">
+      <c r="B336" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C336" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="21">
-      <c r="A337" s="4" t="s">
+      <c r="A337" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B337" s="12" t="s">
+      <c r="B337" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="C337" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="21">
-      <c r="A338" s="4" t="s">
+      <c r="A338" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B338" s="12" t="s">
+      <c r="B338" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="C338" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="21">
-      <c r="B339" s="13"/>
-      <c r="C339" s="3"/>
+      <c r="B339" s="11"/>
+      <c r="C339" s="1"/>
     </row>
     <row r="340" spans="1:3" ht="21">
-      <c r="B340" s="13"/>
-      <c r="C340" s="3"/>
+      <c r="B340" s="11"/>
+      <c r="C340" s="1"/>
     </row>
     <row r="341" spans="1:3" ht="21">
-      <c r="A341" s="6" t="s">
+      <c r="A341" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B341" s="12" t="s">
+      <c r="B341" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="C341" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="21">
-      <c r="A342" s="6" t="s">
+      <c r="A342" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B342" s="12" t="s">
+      <c r="B342" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="C342" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="21">
-      <c r="A343" s="6" t="s">
+      <c r="A343" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B343" s="12" t="s">
+      <c r="B343" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C343" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="21">
-      <c r="A344" s="6" t="s">
+      <c r="A344" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B344" s="12" t="s">
+      <c r="B344" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C344" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="21">
-      <c r="A345" s="6" t="s">
+      <c r="A345" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B345" s="12" t="s">
+      <c r="B345" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="C345" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="21">
-      <c r="A346" s="6" t="s">
+      <c r="A346" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B346" s="12" t="s">
+      <c r="B346" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="C346" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="21">
-      <c r="A347" s="6" t="s">
+      <c r="A347" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B347" s="12" t="s">
+      <c r="B347" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="C347" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="21">
-      <c r="A348" s="6" t="s">
+      <c r="A348" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B348" s="12" t="s">
+      <c r="B348" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="C348" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="21">
-      <c r="A349" s="6" t="s">
+      <c r="A349" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B349" s="16" t="s">
+      <c r="B349" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="C349" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="21">
-      <c r="A350" s="6" t="s">
+      <c r="A350" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B350" s="12" t="s">
+      <c r="B350" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="C350" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="21">
-      <c r="A351" s="6" t="s">
+      <c r="A351" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B351" s="12" t="s">
+      <c r="B351" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="C351" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="21">
-      <c r="A352" s="6" t="s">
+      <c r="A352" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B352" s="12" t="s">
+      <c r="B352" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C352" s="3" t="s">
+      <c r="C352" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="21">
-      <c r="A353" s="6" t="s">
+      <c r="A353" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B353" s="12" t="s">
+      <c r="B353" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="C353" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="21">
-      <c r="A354" s="6" t="s">
+      <c r="A354" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B354" s="12" t="s">
+      <c r="B354" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="C354" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="21">
-      <c r="A355" s="6" t="s">
+      <c r="A355" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B355" s="12" t="s">
+      <c r="B355" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="C355" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="21">
-      <c r="A356" s="6" t="s">
+      <c r="A356" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B356" s="12" t="s">
+      <c r="B356" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="C356" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
-      <c r="A357" s="6" t="s">
+      <c r="A357" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B357" s="12" t="s">
+      <c r="B357" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="C357" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
-      <c r="A358" s="6" t="s">
+      <c r="A358" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B358" s="12" t="s">
+      <c r="B358" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="C358" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
-      <c r="B359" s="13"/>
-      <c r="C359" s="3"/>
+      <c r="B359" s="11"/>
+      <c r="C359" s="1"/>
     </row>
     <row r="360" spans="1:3" ht="21">
-      <c r="B360" s="13"/>
-      <c r="C360" s="3"/>
+      <c r="B360" s="11"/>
+      <c r="C360" s="1"/>
     </row>
     <row r="361" spans="1:3" ht="21">
-      <c r="A361" s="6" t="s">
+      <c r="A361" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B361" s="12" t="s">
+      <c r="B361" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C361" s="3" t="s">
+      <c r="C361" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
-      <c r="A362" s="6" t="s">
+      <c r="A362" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B362" s="12" t="s">
+      <c r="B362" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C362" s="3" t="s">
+      <c r="C362" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">
-      <c r="A363" s="6" t="s">
+      <c r="A363" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B363" s="12" t="s">
+      <c r="B363" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="C363" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
-      <c r="A364" s="6" t="s">
+      <c r="A364" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B364" s="12" t="s">
+      <c r="B364" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="C364" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="21">
-      <c r="A365" s="6" t="s">
+      <c r="A365" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B365" s="12" t="s">
+      <c r="B365" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="C365" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="21">
-      <c r="A366" s="6" t="s">
+      <c r="A366" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B366" s="12" t="s">
+      <c r="B366" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C366" s="3" t="s">
+      <c r="C366" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="21">
-      <c r="A367" s="6" t="s">
+      <c r="A367" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B367" s="12" t="s">
+      <c r="B367" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="C367" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">
-      <c r="A368" s="6" t="s">
+      <c r="A368" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B368" s="12" t="s">
+      <c r="B368" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="C368" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">
-      <c r="A369" s="6" t="s">
+      <c r="A369" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B369" s="12" t="s">
+      <c r="B369" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="C369" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="21">
-      <c r="A370" s="6" t="s">
+      <c r="A370" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B370" s="12" t="s">
+      <c r="B370" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C370" s="3" t="s">
+      <c r="C370" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="21">
-      <c r="A371" s="6" t="s">
+      <c r="A371" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B371" s="12" t="s">
+      <c r="B371" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="C371" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="21">
-      <c r="A372" s="6" t="s">
+      <c r="A372" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B372" s="12" t="s">
+      <c r="B372" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="C372" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="21">
-      <c r="A373" s="6" t="s">
+      <c r="A373" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B373" s="12" t="s">
+      <c r="B373" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="C373" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="21">
-      <c r="A374" s="6" t="s">
+      <c r="A374" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B374" s="12" t="s">
+      <c r="B374" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="C374" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="21">
-      <c r="A375" s="6" t="s">
+      <c r="A375" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B375" s="12" t="s">
+      <c r="B375" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="C375" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="21">
-      <c r="A376" s="6" t="s">
+      <c r="A376" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B376" s="12" t="s">
+      <c r="B376" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C376" s="3" t="s">
+      <c r="C376" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="21">
-      <c r="A377" s="6" t="s">
+      <c r="A377" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B377" s="12" t="s">
+      <c r="B377" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C377" s="3" t="s">
+      <c r="C377" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="21">
-      <c r="A378" s="6" t="s">
+      <c r="A378" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B378" s="12" t="s">
+      <c r="B378" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C378" s="3" t="s">
+      <c r="C378" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="21">
-      <c r="A379" s="6" t="s">
+      <c r="A379" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B379" s="12" t="s">
+      <c r="B379" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C379" s="3" t="s">
+      <c r="C379" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="21">
-      <c r="A380" s="6" t="s">
+      <c r="A380" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B380" s="12" t="s">
+      <c r="B380" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C380" s="3" t="s">
+      <c r="C380" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="21">
-      <c r="A381" s="6" t="s">
+      <c r="A381" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B381" s="12" t="s">
+      <c r="B381" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="C381" s="3" t="s">
+      <c r="C381" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="21">
-      <c r="A382" s="6" t="s">
+      <c r="A382" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B382" s="12" t="s">
+      <c r="B382" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C382" s="3" t="s">
+      <c r="C382" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="21">
-      <c r="A383" s="6" t="s">
+      <c r="A383" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B383" s="12" t="s">
+      <c r="B383" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C383" s="3" t="s">
+      <c r="C383" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="21">
-      <c r="A384" s="6" t="s">
+      <c r="A384" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B384" s="12" t="s">
+      <c r="B384" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C384" s="3" t="s">
+      <c r="C384" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="21">
-      <c r="A385" s="6" t="s">
+      <c r="A385" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B385" s="12" t="s">
+      <c r="B385" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C385" s="3" t="s">
+      <c r="C385" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="21">
-      <c r="A386" s="6" t="s">
+      <c r="A386" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B386" s="12" t="s">
+      <c r="B386" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C386" s="3" t="s">
+      <c r="C386" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="21">
-      <c r="A387" s="6" t="s">
+      <c r="A387" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B387" s="12" t="s">
+      <c r="B387" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C387" s="3" t="s">
+      <c r="C387" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="21">
-      <c r="A388" s="6" t="s">
+      <c r="A388" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B388" s="12" t="s">
+      <c r="B388" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C388" s="3" t="s">
+      <c r="C388" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="21">
-      <c r="A389" s="6" t="s">
+      <c r="A389" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B389" s="12" t="s">
+      <c r="B389" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C389" s="3" t="s">
+      <c r="C389" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="21">
-      <c r="A390" s="6" t="s">
+      <c r="A390" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B390" s="12" t="s">
+      <c r="B390" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C390" s="3" t="s">
+      <c r="C390" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="21">
-      <c r="A391" s="6" t="s">
+      <c r="A391" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B391" s="12" t="s">
+      <c r="B391" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C391" s="3" t="s">
+      <c r="C391" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="21">
-      <c r="A392" s="6" t="s">
+      <c r="A392" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B392" s="12" t="s">
+      <c r="B392" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C392" s="3" t="s">
+      <c r="C392" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="21">
-      <c r="A393" s="6" t="s">
+      <c r="A393" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B393" s="12" t="s">
+      <c r="B393" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C393" s="3" t="s">
+      <c r="C393" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="21">
-      <c r="A394" s="6" t="s">
+      <c r="A394" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B394" s="12" t="s">
+      <c r="B394" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C394" s="3" t="s">
+      <c r="C394" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="21">
-      <c r="A395" s="6" t="s">
+      <c r="A395" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B395" s="12" t="s">
+      <c r="B395" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C395" s="3" t="s">
+      <c r="C395" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="21">
-      <c r="A396" s="6" t="s">
+      <c r="A396" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B396" s="12" t="s">
+      <c r="B396" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C396" s="3" t="s">
+      <c r="C396" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="21">
-      <c r="A397" s="6" t="s">
+      <c r="A397" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B397" s="12" t="s">
+      <c r="B397" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C397" s="3" t="s">
+      <c r="C397" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="21">
-      <c r="A398" s="6" t="s">
+      <c r="A398" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B398" s="12" t="s">
+      <c r="B398" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C398" s="3" t="s">
+      <c r="C398" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="21">
-      <c r="A399" s="6" t="s">
+      <c r="A399" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B399" s="12" t="s">
+      <c r="B399" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C399" s="3" t="s">
+      <c r="C399" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="21">
-      <c r="A400" s="6" t="s">
+      <c r="A400" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B400" s="12" t="s">
+      <c r="B400" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C400" s="3" t="s">
+      <c r="C400" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="21">
-      <c r="A401" s="6" t="s">
+      <c r="A401" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B401" s="12" t="s">
+      <c r="B401" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C401" s="3" t="s">
+      <c r="C401" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="21">
-      <c r="A402" s="6" t="s">
+      <c r="A402" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B402" s="12" t="s">
+      <c r="B402" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C402" s="3" t="s">
+      <c r="C402" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="21">
-      <c r="A403" s="6" t="s">
+      <c r="A403" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B403" s="12" t="s">
+      <c r="B403" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C403" s="3" t="s">
+      <c r="C403" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="21">
-      <c r="A404" s="6" t="s">
+      <c r="A404" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B404" s="12" t="s">
+      <c r="B404" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C404" s="3" t="s">
+      <c r="C404" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="21">
-      <c r="B405" s="13"/>
-      <c r="C405" s="3"/>
+      <c r="B405" s="11"/>
+      <c r="C405" s="1"/>
     </row>
     <row r="406" spans="1:3" ht="21">
-      <c r="B406" s="13"/>
-      <c r="C406" s="3"/>
+      <c r="B406" s="11"/>
+      <c r="C406" s="1"/>
     </row>
     <row r="407" spans="1:3" ht="21">
-      <c r="A407" s="6" t="s">
+      <c r="A407" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B407" s="12" t="s">
+      <c r="B407" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C407" s="3" t="s">
+      <c r="C407" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="21">
-      <c r="A408" s="6" t="s">
+      <c r="A408" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B408" s="12" t="s">
+      <c r="B408" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C408" s="3" t="s">
+      <c r="C408" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="21">
-      <c r="A409" s="6" t="s">
+      <c r="A409" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B409" s="12" t="s">
+      <c r="B409" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C409" s="3" t="s">
+      <c r="C409" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="21">
-      <c r="A410" s="6" t="s">
+      <c r="A410" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B410" s="12" t="s">
+      <c r="B410" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C410" s="3" t="s">
+      <c r="C410" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
-      <c r="A411" s="6" t="s">
+      <c r="A411" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B411" s="12" t="s">
+      <c r="B411" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C411" s="3" t="s">
+      <c r="C411" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
-      <c r="A412" s="6" t="s">
+      <c r="A412" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B412" s="12" t="s">
+      <c r="B412" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C412" s="3" t="s">
+      <c r="C412" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">
-      <c r="B413" s="13"/>
-      <c r="C413" s="3"/>
+      <c r="B413" s="11"/>
+      <c r="C413" s="1"/>
     </row>
     <row r="414" spans="1:3" ht="21">
-      <c r="B414" s="13"/>
-      <c r="C414" s="3"/>
+      <c r="B414" s="11"/>
+      <c r="C414" s="1"/>
     </row>
     <row r="415" spans="1:3" ht="21">
-      <c r="A415" s="4" t="s">
+      <c r="A415" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B415" s="12" t="s">
+      <c r="B415" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C415" s="3" t="s">
+      <c r="C415" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">
-      <c r="A416" s="4" t="s">
+      <c r="A416" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B416" s="12" t="s">
+      <c r="B416" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C416" s="3" t="s">
+      <c r="C416" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
-      <c r="A417" s="4" t="s">
+      <c r="A417" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B417" s="12" t="s">
+      <c r="B417" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C417" s="3" t="s">
+      <c r="C417" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">
-      <c r="A418" s="4" t="s">
+      <c r="A418" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B418" s="12" t="s">
+      <c r="B418" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C418" s="3" t="s">
+      <c r="C418" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21">
-      <c r="A419" s="4" t="s">
+      <c r="A419" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B419" s="12" t="s">
+      <c r="B419" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C419" s="3" t="s">
+      <c r="C419" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">
-      <c r="A420" s="4" t="s">
+      <c r="A420" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B420" s="12" t="s">
+      <c r="B420" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C420" s="3" t="s">
+      <c r="C420" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="21">
-      <c r="A421" s="4" t="s">
+      <c r="A421" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B421" s="12" t="s">
+      <c r="B421" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C421" s="3" t="s">
+      <c r="C421" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="21">
-      <c r="A422" s="4" t="s">
+      <c r="A422" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B422" s="12" t="s">
+      <c r="B422" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C422" s="3" t="s">
+      <c r="C422" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">
-      <c r="A423" s="4" t="s">
+      <c r="A423" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B423" s="12" t="s">
+      <c r="B423" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C423" s="3" t="s">
+      <c r="C423" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">
-      <c r="A424" s="4" t="s">
+      <c r="A424" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B424" s="12" t="s">
+      <c r="B424" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="C424" s="3" t="s">
+      <c r="C424" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="21">
-      <c r="A425" s="4" t="s">
+      <c r="A425" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B425" s="12" t="s">
+      <c r="B425" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C425" s="3" t="s">
+      <c r="C425" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="21">
-      <c r="A426" s="4" t="s">
+      <c r="A426" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B426" s="12" t="s">
+      <c r="B426" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C426" s="3" t="s">
+      <c r="C426" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="21">
-      <c r="A427" s="4" t="s">
+      <c r="A427" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B427" s="12" t="s">
+      <c r="B427" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C427" s="3" t="s">
+      <c r="C427" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="21">
-      <c r="A428" s="4" t="s">
+      <c r="A428" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B428" s="12" t="s">
+      <c r="B428" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="C428" s="3" t="s">
+      <c r="C428" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="21">
-      <c r="A429" s="4" t="s">
+      <c r="A429" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B429" s="12" t="s">
+      <c r="B429" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C429" s="3" t="s">
+      <c r="C429" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="21">
-      <c r="A430" s="4" t="s">
+      <c r="A430" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B430" s="12" t="s">
+      <c r="B430" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C430" s="3" t="s">
+      <c r="C430" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="21">
-      <c r="A431" s="4" t="s">
+      <c r="A431" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B431" s="12" t="s">
+      <c r="B431" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C431" s="3" t="s">
+      <c r="C431" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="21">
-      <c r="A432" s="4" t="s">
+      <c r="A432" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B432" s="12" t="s">
+      <c r="B432" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C432" s="3" t="s">
+      <c r="C432" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="21">
-      <c r="A433" s="4" t="s">
+      <c r="A433" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B433" s="12" t="s">
+      <c r="B433" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C433" s="3" t="s">
+      <c r="C433" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">
-      <c r="A434" s="4" t="s">
+      <c r="A434" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B434" s="12" t="s">
+      <c r="B434" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C434" s="3" t="s">
+      <c r="C434" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="21">
-      <c r="A435" s="4" t="s">
+      <c r="A435" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B435" s="12" t="s">
+      <c r="B435" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C435" s="3" t="s">
+      <c r="C435" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="21">
-      <c r="A436" s="4" t="s">
+      <c r="A436" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B436" s="12" t="s">
+      <c r="B436" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C436" s="3" t="s">
+      <c r="C436" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="21">
-      <c r="A437" s="4" t="s">
+      <c r="A437" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B437" s="12" t="s">
+      <c r="B437" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C437" s="3" t="s">
+      <c r="C437" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="21">
-      <c r="A438" s="4" t="s">
+      <c r="A438" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B438" s="12" t="s">
+      <c r="B438" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C438" s="3" t="s">
+      <c r="C438" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="21">
-      <c r="A439" s="4" t="s">
+      <c r="A439" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B439" s="12" t="s">
+      <c r="B439" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C439" s="3" t="s">
+      <c r="C439" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="21">
-      <c r="A440" s="4" t="s">
+      <c r="A440" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B440" s="12" t="s">
+      <c r="B440" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C440" s="3" t="s">
+      <c r="C440" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="21">
-      <c r="A441" s="4" t="s">
+      <c r="A441" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B441" s="12" t="s">
+      <c r="B441" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C441" s="3" t="s">
+      <c r="C441" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="21">
-      <c r="A442" s="4" t="s">
+      <c r="A442" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B442" s="12" t="s">
+      <c r="B442" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C442" s="3" t="s">
+      <c r="C442" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="21">
-      <c r="A443" s="4" t="s">
+      <c r="A443" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B443" s="12" t="s">
+      <c r="B443" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C443" s="3" t="s">
+      <c r="C443" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="21">
-      <c r="A444" s="4" t="s">
+      <c r="A444" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B444" s="12" t="s">
+      <c r="B444" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C444" s="3" t="s">
+      <c r="C444" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="21">
-      <c r="A445" s="4" t="s">
+      <c r="A445" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B445" s="12" t="s">
+      <c r="B445" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C445" s="3" t="s">
+      <c r="C445" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="21">
-      <c r="A446" s="4" t="s">
+      <c r="A446" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B446" s="12" t="s">
+      <c r="B446" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C446" s="3" t="s">
+      <c r="C446" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="21">
-      <c r="A447" s="4" t="s">
+      <c r="A447" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B447" s="12" t="s">
+      <c r="B447" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C447" s="3" t="s">
+      <c r="C447" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="21">
-      <c r="A448" s="4" t="s">
+      <c r="A448" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B448" s="12" t="s">
+      <c r="B448" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C448" s="3" t="s">
+      <c r="C448" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="21">
-      <c r="A449" s="4" t="s">
+      <c r="A449" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B449" s="12" t="s">
+      <c r="B449" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C449" s="3" t="s">
+      <c r="C449" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="21">
-      <c r="A450" s="4" t="s">
+      <c r="A450" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B450" s="12" t="s">
+      <c r="B450" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C450" s="3" t="s">
+      <c r="C450" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="21">
-      <c r="A451" s="4" t="s">
+      <c r="A451" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B451" s="12" t="s">
+      <c r="B451" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C451" s="3" t="s">
+      <c r="C451" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="21">
-      <c r="A452" s="4" t="s">
+      <c r="A452" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B452" s="12" t="s">
+      <c r="B452" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C452" s="3" t="s">
+      <c r="C452" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="21">
-      <c r="A453" s="4" t="s">
+      <c r="A453" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B453" s="12" t="s">
+      <c r="B453" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C453" s="3" t="s">
+      <c r="C453" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="21">
-      <c r="A454" s="4" t="s">
+      <c r="A454" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B454" s="12" t="s">
+      <c r="B454" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C454" s="3" t="s">
+      <c r="C454" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="21">
-      <c r="A455" s="4" t="s">
+      <c r="A455" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B455" s="12" t="s">
+      <c r="B455" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C455" s="3" t="s">
+      <c r="C455" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="21">
-      <c r="A456" s="4" t="s">
+      <c r="A456" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B456" s="12" t="s">
+      <c r="B456" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C456" s="3" t="s">
+      <c r="C456" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="21">
-      <c r="A457" s="4" t="s">
+      <c r="A457" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B457" s="12" t="s">
+      <c r="B457" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C457" s="3" t="s">
+      <c r="C457" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="21">
-      <c r="A458" s="4" t="s">
+      <c r="A458" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B458" s="12" t="s">
+      <c r="B458" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="C458" s="3" t="s">
+      <c r="C458" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="21">
-      <c r="A459" s="4" t="s">
+      <c r="A459" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B459" s="12" t="s">
+      <c r="B459" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C459" s="3" t="s">
+      <c r="C459" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="21">
-      <c r="A460" s="4" t="s">
+      <c r="A460" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B460" s="12" t="s">
+      <c r="B460" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="C460" s="3" t="s">
+      <c r="C460" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="21">
-      <c r="A461" s="4" t="s">
+      <c r="A461" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B461" s="12" t="s">
+      <c r="B461" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C461" s="3" t="s">
+      <c r="C461" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="21">
-      <c r="A462" s="4" t="s">
+      <c r="A462" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B462" s="12" t="s">
+      <c r="B462" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="C462" s="3" t="s">
+      <c r="C462" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="21">
-      <c r="A463" s="4" t="s">
+      <c r="A463" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B463" s="12" t="s">
+      <c r="B463" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C463" s="3" t="s">
+      <c r="C463" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="21">
-      <c r="A464" s="4" t="s">
+      <c r="A464" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B464" s="12" t="s">
+      <c r="B464" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C464" s="3" t="s">
+      <c r="C464" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="21">
-      <c r="A465" s="4" t="s">
+      <c r="A465" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B465" s="12" t="s">
+      <c r="B465" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C465" s="3" t="s">
+      <c r="C465" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="21">
-      <c r="A466" s="4" t="s">
+      <c r="A466" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B466" s="12" t="s">
+      <c r="B466" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="C466" s="3" t="s">
+      <c r="C466" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="21">
-      <c r="A467" s="4" t="s">
+      <c r="A467" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B467" s="12" t="s">
+      <c r="B467" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C467" s="3" t="s">
+      <c r="C467" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="21">
-      <c r="A468" s="4" t="s">
+      <c r="A468" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B468" s="12" t="s">
+      <c r="B468" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C468" s="3" t="s">
+      <c r="C468" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="21">
-      <c r="A469" s="4" t="s">
+      <c r="A469" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B469" s="12" t="s">
+      <c r="B469" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="C469" s="3" t="s">
+      <c r="C469" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
-      <c r="A470" s="4" t="s">
+      <c r="A470" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B470" s="12" t="s">
+      <c r="B470" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="C470" s="3" t="s">
+      <c r="C470" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="21">
-      <c r="A471" s="4" t="s">
+      <c r="A471" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B471" s="12" t="s">
+      <c r="B471" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="C471" s="3" t="s">
+      <c r="C471" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="21">
-      <c r="A472" s="4" t="s">
+      <c r="A472" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B472" s="12" t="s">
+      <c r="B472" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C472" s="3" t="s">
+      <c r="C472" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
-      <c r="A473" s="4" t="s">
+      <c r="A473" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B473" s="12" t="s">
+      <c r="B473" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C473" s="3" t="s">
+      <c r="C473" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
-      <c r="A474" s="4" t="s">
+      <c r="A474" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B474" s="12" t="s">
+      <c r="B474" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C474" s="3" t="s">
+      <c r="C474" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
-      <c r="B475" s="13"/>
-      <c r="C475" s="3"/>
+      <c r="B475" s="11"/>
+      <c r="C475" s="1"/>
     </row>
     <row r="476" spans="1:3" ht="21">
-      <c r="A476" s="6"/>
-      <c r="B476" s="13"/>
-      <c r="C476" s="3"/>
+      <c r="A476" s="4"/>
+      <c r="B476" s="11"/>
+      <c r="C476" s="1"/>
     </row>
     <row r="477" spans="1:3" ht="21">
-      <c r="A477" s="4" t="s">
+      <c r="A477" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B477" s="12" t="s">
+      <c r="B477" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="C477" s="3" t="s">
+      <c r="C477" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">
-      <c r="A478" s="4" t="s">
+      <c r="A478" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B478" s="12" t="s">
+      <c r="B478" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="C478" s="3" t="s">
+      <c r="C478" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="21">
-      <c r="A479" s="4" t="s">
+      <c r="A479" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B479" s="12" t="s">
+      <c r="B479" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C479" s="3" t="s">
+      <c r="C479" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="21">
-      <c r="A480" s="4" t="s">
+      <c r="A480" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B480" s="12" t="s">
+      <c r="B480" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C480" s="3" t="s">
+      <c r="C480" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="21">
-      <c r="A481" s="4" t="s">
+      <c r="A481" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B481" s="12" t="s">
+      <c r="B481" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C481" s="3" t="s">
+      <c r="C481" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="21">
-      <c r="A482" s="4" t="s">
+      <c r="A482" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B482" s="12" t="s">
+      <c r="B482" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="C482" s="3" t="s">
+      <c r="C482" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="21">
-      <c r="A483" s="4" t="s">
+      <c r="A483" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B483" s="12" t="s">
+      <c r="B483" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="C483" s="3" t="s">
+      <c r="C483" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="21">
-      <c r="A484" s="4" t="s">
+      <c r="A484" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B484" s="12" t="s">
+      <c r="B484" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="C484" s="3" t="s">
+      <c r="C484" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="21">
-      <c r="A485" s="4" t="s">
+      <c r="A485" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B485" s="12" t="s">
+      <c r="B485" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="C485" s="3" t="s">
+      <c r="C485" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="21">
-      <c r="A486" s="4" t="s">
+      <c r="A486" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B486" s="12" t="s">
+      <c r="B486" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C486" s="3" t="s">
+      <c r="C486" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="487" spans="1:3">
-      <c r="B487" s="17"/>
+      <c r="B487" s="15"/>
     </row>
     <row r="488" spans="1:3">
-      <c r="B488" s="17"/>
+      <c r="B488" s="15"/>
     </row>
     <row r="489" spans="1:3">
-      <c r="B489" s="17"/>
+      <c r="B489" s="15"/>
     </row>
     <row r="490" spans="1:3">
-      <c r="B490" s="17"/>
+      <c r="B490" s="15"/>
     </row>
     <row r="491" spans="1:3">
-      <c r="B491" s="17"/>
+      <c r="B491" s="15"/>
     </row>
     <row r="492" spans="1:3">
-      <c r="B492" s="17"/>
+      <c r="B492" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2018,7 +2018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2596,33 +2596,33 @@
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>3</v>
+      <c r="C56" s="9" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
       <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>3</v>
+      <c r="C57" s="9" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
       <c r="A58" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>3</v>
+      <c r="C58" s="9" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -230,9 +230,6 @@
     <t>Find Duplicate characters in a string</t>
   </si>
   <si>
-    <t>Why strings are immutable in Java?</t>
-  </si>
-  <si>
     <t>Write a Code to check whether one string is a rotation of another</t>
   </si>
   <si>
@@ -1473,6 +1470,9 @@
   </si>
   <si>
     <t>Comments in Solution</t>
+  </si>
+  <si>
+    <t>Why strings are immutable in Javascript?</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2042,7 +2042,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" ht="45" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2059,7 +2059,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2073,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2084,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2106,7 +2106,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2117,7 +2117,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2128,7 +2128,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -2139,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2150,7 +2150,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2161,7 +2161,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2172,7 +2172,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2183,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2194,7 +2194,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2216,7 +2216,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
@@ -2227,7 +2227,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
@@ -2238,7 +2238,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
@@ -2249,7 +2249,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2260,7 +2260,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2271,7 +2271,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">
@@ -2282,7 +2282,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
@@ -2600,7 +2600,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2611,7 +2611,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2622,29 +2622,29 @@
         <v>55</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
       <c r="A59" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>3</v>
+      <c r="B59" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
       <c r="A60" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>3</v>
+      <c r="B60" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
@@ -2652,7 +2652,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
@@ -2663,7 +2663,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
@@ -2674,7 +2674,7 @@
         <v>52</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
@@ -2685,7 +2685,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
@@ -2696,7 +2696,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
@@ -2707,7 +2707,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
@@ -2718,7 +2718,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
@@ -2729,7 +2729,7 @@
         <v>52</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
@@ -2740,7 +2740,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
@@ -2751,7 +2751,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
@@ -2762,7 +2762,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>3</v>
@@ -2773,7 +2773,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
@@ -2784,7 +2784,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>3</v>
@@ -2795,7 +2795,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>3</v>
@@ -2806,7 +2806,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>3</v>
@@ -2817,7 +2817,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>3</v>
@@ -2828,7 +2828,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
@@ -2839,7 +2839,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
@@ -2850,7 +2850,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
@@ -2861,7 +2861,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
@@ -2872,7 +2872,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
@@ -2883,7 +2883,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
@@ -2894,7 +2894,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
@@ -2905,7 +2905,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
@@ -2916,7 +2916,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
@@ -2927,7 +2927,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
@@ -2938,7 +2938,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
@@ -2949,7 +2949,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
@@ -2960,7 +2960,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
@@ -2971,7 +2971,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
@@ -2982,7 +2982,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
@@ -2993,7 +2993,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
@@ -3004,7 +3004,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
@@ -3015,7 +3015,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
@@ -3026,7 +3026,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
@@ -3037,7 +3037,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
@@ -3048,7 +3048,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
@@ -3059,7 +3059,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
@@ -3075,54 +3075,54 @@
     </row>
     <row r="101" spans="1:4" ht="21">
       <c r="A101" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B101" s="16" t="s">
-        <v>97</v>
-      </c>
       <c r="C101" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
       <c r="A102" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
       <c r="A103" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="21">
       <c r="A104" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="21">
       <c r="A105" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
@@ -3130,10 +3130,10 @@
     </row>
     <row r="106" spans="1:4" ht="21">
       <c r="A106" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
@@ -3141,79 +3141,79 @@
     </row>
     <row r="107" spans="1:4" ht="21">
       <c r="A107" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="21">
       <c r="A108" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21">
       <c r="A109" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
       <c r="A110" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="21">
       <c r="A111" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="21">
       <c r="A112" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
@@ -3221,87 +3221,87 @@
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
@@ -3309,10 +3309,10 @@
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>3</v>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
@@ -3342,10 +3342,10 @@
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
@@ -3353,10 +3353,10 @@
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
@@ -3364,10 +3364,10 @@
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>3</v>
@@ -3375,10 +3375,10 @@
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>3</v>
@@ -3386,10 +3386,10 @@
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>3</v>
@@ -3397,10 +3397,10 @@
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>3</v>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>3</v>
@@ -3419,10 +3419,10 @@
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>3</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
@@ -3441,10 +3441,10 @@
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>3</v>
@@ -3452,10 +3452,10 @@
     </row>
     <row r="135" spans="1:3" ht="21">
       <c r="A135" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>3</v>
@@ -3463,10 +3463,10 @@
     </row>
     <row r="136" spans="1:3" ht="21">
       <c r="A136" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>3</v>
@@ -3474,10 +3474,10 @@
     </row>
     <row r="137" spans="1:3" ht="21">
       <c r="A137" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>3</v>
@@ -3485,10 +3485,10 @@
     </row>
     <row r="138" spans="1:3" ht="21">
       <c r="A138" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>3</v>
@@ -3496,10 +3496,10 @@
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>3</v>
@@ -3518,10 +3518,10 @@
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>3</v>
@@ -3533,142 +3533,142 @@
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B144" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B144" s="16" t="s">
-        <v>134</v>
-      </c>
       <c r="C144" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>3</v>
@@ -3676,10 +3676,10 @@
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>3</v>
@@ -3687,32 +3687,32 @@
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>3</v>
@@ -3720,54 +3720,54 @@
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>3</v>
@@ -3775,10 +3775,10 @@
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>3</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>3</v>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>3</v>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>3</v>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>3</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>3</v>
@@ -3841,10 +3841,10 @@
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>3</v>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>3</v>
@@ -3863,10 +3863,10 @@
     </row>
     <row r="174" spans="1:3" ht="21">
       <c r="A174" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>3</v>
@@ -3874,10 +3874,10 @@
     </row>
     <row r="175" spans="1:3" ht="21">
       <c r="A175" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>3</v>
@@ -3885,10 +3885,10 @@
     </row>
     <row r="176" spans="1:3" ht="21">
       <c r="A176" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>3</v>
@@ -3896,10 +3896,10 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>3</v>
@@ -3907,10 +3907,10 @@
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>3</v>
@@ -3918,10 +3918,10 @@
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>3</v>
@@ -3933,10 +3933,10 @@
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B182" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>3</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>3</v>
@@ -3955,10 +3955,10 @@
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>3</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>3</v>
@@ -3977,10 +3977,10 @@
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>3</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>3</v>
@@ -3999,10 +3999,10 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>3</v>
@@ -4010,10 +4010,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>3</v>
@@ -4021,10 +4021,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>3</v>
@@ -4032,10 +4032,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>3</v>
@@ -4043,10 +4043,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>3</v>
@@ -4054,10 +4054,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>3</v>
@@ -4065,10 +4065,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>3</v>
@@ -4076,10 +4076,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>3</v>
@@ -4087,10 +4087,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>3</v>
@@ -4098,10 +4098,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>3</v>
@@ -4109,10 +4109,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>3</v>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>3</v>
@@ -4131,10 +4131,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>3</v>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>3</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>3</v>
@@ -4164,10 +4164,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>3</v>
@@ -4175,10 +4175,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>3</v>
@@ -4186,10 +4186,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>3</v>
@@ -4197,10 +4197,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>3</v>
@@ -4208,10 +4208,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>3</v>
@@ -4219,10 +4219,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>3</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>3</v>
@@ -4241,10 +4241,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>3</v>
@@ -4252,10 +4252,10 @@
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>3</v>
@@ -4263,10 +4263,10 @@
     </row>
     <row r="212" spans="1:3" ht="21">
       <c r="A212" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>3</v>
@@ -4274,10 +4274,10 @@
     </row>
     <row r="213" spans="1:3" ht="21">
       <c r="A213" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>3</v>
@@ -4285,10 +4285,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>3</v>
@@ -4296,10 +4296,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>3</v>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>3</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B219" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="B219" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>3</v>
@@ -4339,10 +4339,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>3</v>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>3</v>
@@ -4361,10 +4361,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>3</v>
@@ -4372,10 +4372,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>3</v>
@@ -4383,10 +4383,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>3</v>
@@ -4394,10 +4394,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>3</v>
@@ -4405,10 +4405,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>3</v>
@@ -4416,10 +4416,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>3</v>
@@ -4427,10 +4427,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>3</v>
@@ -4438,10 +4438,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>3</v>
@@ -4449,10 +4449,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>3</v>
@@ -4460,10 +4460,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>3</v>
@@ -4471,10 +4471,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>3</v>
@@ -4482,10 +4482,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>3</v>
@@ -4493,10 +4493,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>3</v>
@@ -4504,10 +4504,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>3</v>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="236" spans="1:3" ht="21">
       <c r="A236" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>3</v>
@@ -4526,10 +4526,10 @@
     </row>
     <row r="237" spans="1:3" ht="21">
       <c r="A237" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>3</v>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>3</v>
@@ -4548,10 +4548,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>3</v>
@@ -4559,10 +4559,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>3</v>
@@ -4578,10 +4578,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B243" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="B243" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>3</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>3</v>
@@ -4600,10 +4600,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>3</v>
@@ -4611,10 +4611,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>3</v>
@@ -4622,10 +4622,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>3</v>
@@ -4633,10 +4633,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>3</v>
@@ -4644,10 +4644,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>3</v>
@@ -4655,10 +4655,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>3</v>
@@ -4666,10 +4666,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>3</v>
@@ -4677,10 +4677,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>3</v>
@@ -4688,10 +4688,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>3</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>3</v>
@@ -4710,10 +4710,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>3</v>
@@ -4721,10 +4721,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>3</v>
@@ -4732,10 +4732,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>3</v>
@@ -4743,10 +4743,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>3</v>
@@ -4754,10 +4754,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>3</v>
@@ -4765,10 +4765,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>3</v>
@@ -4776,10 +4776,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>3</v>
@@ -4787,10 +4787,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>3</v>
@@ -4798,10 +4798,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>3</v>
@@ -4809,10 +4809,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>3</v>
@@ -4820,10 +4820,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>3</v>
@@ -4831,10 +4831,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>3</v>
@@ -4842,10 +4842,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>3</v>
@@ -4853,10 +4853,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>3</v>
@@ -4864,10 +4864,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>3</v>
@@ -4875,10 +4875,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>3</v>
@@ -4886,10 +4886,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>3</v>
@@ -4897,10 +4897,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>3</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="273" spans="1:3" ht="21">
       <c r="A273" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>3</v>
@@ -4919,10 +4919,10 @@
     </row>
     <row r="274" spans="1:3" ht="21">
       <c r="A274" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>3</v>
@@ -4930,10 +4930,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>3</v>
@@ -4941,10 +4941,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>3</v>
@@ -4952,10 +4952,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>3</v>
@@ -4971,10 +4971,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B280" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="B280" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>3</v>
@@ -4982,10 +4982,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>3</v>
@@ -4993,10 +4993,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>3</v>
@@ -5004,10 +5004,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>3</v>
@@ -5015,10 +5015,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>3</v>
@@ -5026,10 +5026,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>3</v>
@@ -5037,10 +5037,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>3</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>3</v>
@@ -5059,10 +5059,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>3</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>3</v>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>3</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>3</v>
@@ -5103,10 +5103,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>3</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>3</v>
@@ -5125,10 +5125,10 @@
     </row>
     <row r="294" spans="1:3" ht="21">
       <c r="A294" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>3</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="A295" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>3</v>
@@ -5147,10 +5147,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>3</v>
@@ -5158,10 +5158,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>3</v>
@@ -5169,10 +5169,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>3</v>
@@ -5188,10 +5188,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B301" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="B301" s="10" t="s">
-        <v>285</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>3</v>
@@ -5199,10 +5199,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>3</v>
@@ -5210,10 +5210,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>3</v>
@@ -5221,10 +5221,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>3</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>3</v>
@@ -5243,10 +5243,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>3</v>
@@ -5254,10 +5254,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>3</v>
@@ -5265,10 +5265,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>3</v>
@@ -5276,10 +5276,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>3</v>
@@ -5287,10 +5287,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>3</v>
@@ -5298,10 +5298,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>3</v>
@@ -5309,10 +5309,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>3</v>
@@ -5320,10 +5320,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>3</v>
@@ -5331,10 +5331,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>3</v>
@@ -5342,10 +5342,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>3</v>
@@ -5353,10 +5353,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>3</v>
@@ -5364,10 +5364,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>3</v>
@@ -5375,10 +5375,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>3</v>
@@ -5386,10 +5386,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>3</v>
@@ -5397,10 +5397,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>3</v>
@@ -5408,10 +5408,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>3</v>
@@ -5419,10 +5419,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>3</v>
@@ -5430,10 +5430,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>3</v>
@@ -5441,10 +5441,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>3</v>
@@ -5452,10 +5452,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>3</v>
@@ -5463,10 +5463,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>3</v>
@@ -5474,10 +5474,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>3</v>
@@ -5485,10 +5485,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>3</v>
@@ -5496,10 +5496,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>3</v>
@@ -5507,10 +5507,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>3</v>
@@ -5518,10 +5518,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>3</v>
@@ -5529,10 +5529,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>3</v>
@@ -5540,10 +5540,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>3</v>
@@ -5551,10 +5551,10 @@
     </row>
     <row r="334" spans="1:3" ht="21">
       <c r="A334" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>3</v>
@@ -5562,10 +5562,10 @@
     </row>
     <row r="335" spans="1:3" ht="21">
       <c r="A335" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>3</v>
@@ -5573,10 +5573,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>3</v>
@@ -5584,10 +5584,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>3</v>
@@ -5595,10 +5595,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>3</v>
@@ -5614,10 +5614,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B341" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="B341" s="10" t="s">
-        <v>324</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>3</v>
@@ -5625,10 +5625,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>3</v>
@@ -5636,10 +5636,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>3</v>
@@ -5647,10 +5647,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>3</v>
@@ -5658,10 +5658,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>3</v>
@@ -5669,10 +5669,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>3</v>
@@ -5680,10 +5680,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>3</v>
@@ -5691,10 +5691,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>3</v>
@@ -5702,10 +5702,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>3</v>
@@ -5713,10 +5713,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>3</v>
@@ -5724,10 +5724,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>3</v>
@@ -5735,10 +5735,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>3</v>
@@ -5746,10 +5746,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>3</v>
@@ -5757,10 +5757,10 @@
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="A354" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>3</v>
@@ -5768,10 +5768,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>3</v>
@@ -5779,10 +5779,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>3</v>
@@ -5790,10 +5790,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>3</v>
@@ -5801,10 +5801,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>3</v>
@@ -5820,10 +5820,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B361" s="10" t="s">
         <v>342</v>
-      </c>
-      <c r="B361" s="10" t="s">
-        <v>343</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>3</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>3</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>3</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>3</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>3</v>
@@ -5875,10 +5875,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>3</v>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>3</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>3</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>3</v>
@@ -5919,10 +5919,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>3</v>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>3</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>3</v>
@@ -5952,10 +5952,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>3</v>
@@ -5963,10 +5963,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>3</v>
@@ -5974,10 +5974,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>3</v>
@@ -5985,10 +5985,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>3</v>
@@ -5996,10 +5996,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>3</v>
@@ -6007,10 +6007,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>3</v>
@@ -6018,10 +6018,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>3</v>
@@ -6029,10 +6029,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>3</v>
@@ -6040,10 +6040,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>3</v>
@@ -6051,10 +6051,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>3</v>
@@ -6062,10 +6062,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>3</v>
@@ -6073,10 +6073,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>3</v>
@@ -6084,10 +6084,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>3</v>
@@ -6095,10 +6095,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>3</v>
@@ -6106,10 +6106,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>3</v>
@@ -6117,10 +6117,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>3</v>
@@ -6128,10 +6128,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>3</v>
@@ -6139,10 +6139,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>3</v>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>3</v>
@@ -6161,10 +6161,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>3</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>3</v>
@@ -6183,10 +6183,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>3</v>
@@ -6194,10 +6194,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>3</v>
@@ -6205,10 +6205,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>3</v>
@@ -6216,10 +6216,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>3</v>
@@ -6227,10 +6227,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>3</v>
@@ -6238,10 +6238,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>3</v>
@@ -6249,10 +6249,10 @@
     </row>
     <row r="400" spans="1:3" ht="21">
       <c r="A400" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>3</v>
@@ -6260,10 +6260,10 @@
     </row>
     <row r="401" spans="1:3" ht="21">
       <c r="A401" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>3</v>
@@ -6271,10 +6271,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>3</v>
@@ -6282,10 +6282,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>3</v>
@@ -6293,10 +6293,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>3</v>
@@ -6312,10 +6312,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B407" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="B407" s="10" t="s">
-        <v>387</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>3</v>
@@ -6323,10 +6323,10 @@
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>3</v>
@@ -6334,10 +6334,10 @@
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>3</v>
@@ -6345,10 +6345,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>3</v>
@@ -6356,10 +6356,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>3</v>
@@ -6367,10 +6367,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>3</v>
@@ -6386,10 +6386,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B415" s="10" t="s">
         <v>392</v>
-      </c>
-      <c r="B415" s="10" t="s">
-        <v>393</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>3</v>
@@ -6397,10 +6397,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>3</v>
@@ -6408,10 +6408,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>3</v>
@@ -6419,10 +6419,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>3</v>
@@ -6430,10 +6430,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>3</v>
@@ -6441,10 +6441,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>3</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>3</v>
@@ -6463,10 +6463,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>3</v>
@@ -6474,10 +6474,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>3</v>
@@ -6485,10 +6485,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>3</v>
@@ -6496,10 +6496,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>3</v>
@@ -6507,10 +6507,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>3</v>
@@ -6518,10 +6518,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>3</v>
@@ -6529,10 +6529,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>3</v>
@@ -6540,10 +6540,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>3</v>
@@ -6551,10 +6551,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>3</v>
@@ -6562,10 +6562,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>3</v>
@@ -6573,10 +6573,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>3</v>
@@ -6584,10 +6584,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>3</v>
@@ -6595,10 +6595,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>3</v>
@@ -6606,10 +6606,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>3</v>
@@ -6617,10 +6617,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>3</v>
@@ -6628,10 +6628,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>3</v>
@@ -6639,10 +6639,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>3</v>
@@ -6650,10 +6650,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>3</v>
@@ -6661,10 +6661,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>3</v>
@@ -6672,10 +6672,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>3</v>
@@ -6683,10 +6683,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>3</v>
@@ -6694,10 +6694,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>3</v>
@@ -6705,10 +6705,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>3</v>
@@ -6716,10 +6716,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>3</v>
@@ -6727,10 +6727,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>3</v>
@@ -6738,10 +6738,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>3</v>
@@ -6749,10 +6749,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>3</v>
@@ -6760,10 +6760,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>3</v>
@@ -6771,10 +6771,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>3</v>
@@ -6782,10 +6782,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>3</v>
@@ -6793,10 +6793,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>3</v>
@@ -6804,10 +6804,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>3</v>
@@ -6815,10 +6815,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>3</v>
@@ -6826,10 +6826,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B455" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>3</v>
@@ -6837,10 +6837,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>3</v>
@@ -6848,10 +6848,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>3</v>
@@ -6859,10 +6859,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>3</v>
@@ -6870,10 +6870,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>3</v>
@@ -6881,10 +6881,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>3</v>
@@ -6892,10 +6892,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>3</v>
@@ -6903,10 +6903,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>3</v>
@@ -6914,10 +6914,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>3</v>
@@ -6925,10 +6925,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>3</v>
@@ -6936,10 +6936,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>3</v>
@@ -6947,10 +6947,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>3</v>
@@ -6958,10 +6958,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>3</v>
@@ -6969,10 +6969,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>3</v>
@@ -6980,10 +6980,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>3</v>
@@ -6991,10 +6991,10 @@
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>3</v>
@@ -7002,10 +7002,10 @@
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>3</v>
@@ -7013,10 +7013,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>3</v>
@@ -7024,10 +7024,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>3</v>
@@ -7035,10 +7035,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>3</v>
@@ -7055,10 +7055,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B477" s="10" t="s">
         <v>452</v>
-      </c>
-      <c r="B477" s="10" t="s">
-        <v>453</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>3</v>
@@ -7066,10 +7066,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B478" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>3</v>
@@ -7077,10 +7077,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>3</v>
@@ -7088,10 +7088,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>3</v>
@@ -7099,10 +7099,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>3</v>
@@ -7110,10 +7110,10 @@
     </row>
     <row r="482" spans="1:3" ht="21">
       <c r="A482" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>3</v>
@@ -7121,10 +7121,10 @@
     </row>
     <row r="483" spans="1:3" ht="21">
       <c r="A483" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B483" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>3</v>
@@ -7132,10 +7132,10 @@
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B484" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>3</v>
@@ -7143,10 +7143,10 @@
     </row>
     <row r="485" spans="1:3" ht="21">
       <c r="A485" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>3</v>
@@ -7154,10 +7154,10 @@
     </row>
     <row r="486" spans="1:3" ht="21">
       <c r="A486" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>3</v>
@@ -7632,9 +7632,10 @@
     <hyperlink ref="B112" r:id="rId447"/>
     <hyperlink ref="B111" r:id="rId448"/>
     <hyperlink ref="B113" r:id="rId449"/>
+    <hyperlink ref="B59" r:id="rId450"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId450"/>
-  <legacyDrawing r:id="rId451"/>
+  <pageSetup orientation="portrait" r:id="rId451"/>
+  <legacyDrawing r:id="rId452"/>
 </worksheet>
 </file>
--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2651,11 +2651,11 @@
       <c r="A61" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>3</v>
+      <c r="C61" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
@@ -2673,11 +2673,11 @@
       <c r="A63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>3</v>
+      <c r="C63" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2018,7 +2018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2695,11 +2695,11 @@
       <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>3</v>
+      <c r="C65" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2018,7 +2018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2029,7 +2029,7 @@
   <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2706,11 +2706,11 @@
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>3</v>
+      <c r="C66" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2018,7 +2018,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2717,11 +2717,11 @@
       <c r="A67" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>3</v>
+      <c r="C67" s="9" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -1479,7 +1479,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1638,6 +1638,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1660,7 +1677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1710,6 +1727,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2018,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2029,7 +2050,7 @@
   <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2728,11 +2749,11 @@
       <c r="A68" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>3</v>
+      <c r="C68" s="23" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="B415" sqref="B415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6409,11 +6409,11 @@
       <c r="A415" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B415" s="10" t="s">
+      <c r="B415" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="C415" s="1" t="s">
-        <v>3</v>
+      <c r="C415" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="B415" sqref="B415"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6475,11 +6475,11 @@
       <c r="A421" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B421" s="10" t="s">
+      <c r="B421" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="C421" s="1" t="s">
-        <v>3</v>
+      <c r="C421" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423"/>
+    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="B429" sqref="B429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6541,11 +6541,11 @@
       <c r="A427" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B427" s="10" t="s">
+      <c r="B427" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="C427" s="1" t="s">
-        <v>3</v>
+      <c r="C427" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2050,7 +2050,7 @@
   <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="B429" sqref="B429"/>
+      <selection activeCell="C422" sqref="C422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6486,11 +6486,11 @@
       <c r="A422" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B422" s="10" t="s">
+      <c r="B422" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C422" s="1" t="s">
-        <v>3</v>
+      <c r="C422" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="C422" sqref="C422"/>
+    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="C428" sqref="C428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6552,11 +6552,11 @@
       <c r="A428" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B428" s="10" t="s">
+      <c r="B428" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C428" s="1" t="s">
-        <v>3</v>
+      <c r="C428" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="C428" sqref="C428"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="C416" sqref="C416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6420,11 +6420,11 @@
       <c r="A416" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B416" s="10" t="s">
+      <c r="B416" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="C416" s="1" t="s">
-        <v>3</v>
+      <c r="C416" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="C416" sqref="C416"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="C429" sqref="C429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6563,11 +6563,11 @@
       <c r="A429" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B429" s="10" t="s">
+      <c r="B429" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="C429" s="1" t="s">
-        <v>3</v>
+      <c r="C429" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="C429" sqref="C429"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="C430" sqref="C430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6574,11 +6574,11 @@
       <c r="A430" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B430" s="10" t="s">
+      <c r="B430" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C430" s="1" t="s">
-        <v>3</v>
+      <c r="C430" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="C430" sqref="C430"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="B443" sqref="B443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6717,11 +6717,11 @@
       <c r="A443" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B443" s="10" t="s">
+      <c r="B443" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="C443" s="1" t="s">
-        <v>3</v>
+      <c r="C443" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="B443" sqref="B443"/>
+    <sheetView tabSelected="1" topLeftCell="C443" workbookViewId="0">
+      <selection activeCell="H448" sqref="H448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6750,11 +6750,11 @@
       <c r="A446" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B446" s="10" t="s">
+      <c r="B446" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="C446" s="1" t="s">
-        <v>3</v>
+      <c r="C446" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="21">
@@ -6794,11 +6794,11 @@
       <c r="A450" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B450" s="10" t="s">
+      <c r="B450" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="C450" s="1" t="s">
-        <v>3</v>
+      <c r="C450" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C443" workbookViewId="0">
-      <selection activeCell="H448" sqref="H448"/>
+    <sheetView tabSelected="1" topLeftCell="B448" workbookViewId="0">
+      <selection activeCell="K449" sqref="K449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6783,11 +6783,11 @@
       <c r="A449" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B449" s="10" t="s">
+      <c r="B449" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="C449" s="1" t="s">
-        <v>3</v>
+      <c r="C449" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B448" workbookViewId="0">
-      <selection activeCell="K449" sqref="K449"/>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="B454" sqref="B454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6849,11 +6849,11 @@
       <c r="A455" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B455" s="10" t="s">
+      <c r="B455" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="C455" s="1" t="s">
-        <v>3</v>
+      <c r="C455" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
-      <selection activeCell="B454" sqref="B454"/>
+    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="C457" sqref="C457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6871,11 +6871,11 @@
       <c r="A457" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B457" s="10" t="s">
+      <c r="B457" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="C457" s="1" t="s">
-        <v>3</v>
+      <c r="C457" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="C457" sqref="C457"/>
+    <sheetView tabSelected="1" topLeftCell="C450" workbookViewId="0">
+      <selection activeCell="C456" sqref="C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6860,11 +6860,11 @@
       <c r="A456" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B456" s="10" t="s">
+      <c r="B456" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="C456" s="1" t="s">
-        <v>3</v>
+      <c r="C456" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C450" workbookViewId="0">
-      <selection activeCell="C456" sqref="C456"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="B301" activeCellId="1" sqref="C301 B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5211,11 +5211,11 @@
       <c r="A301" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B301" s="10" t="s">
+      <c r="B301" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C301" s="1" t="s">
-        <v>3</v>
+      <c r="C301" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2050,7 +2050,7 @@
   <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="B301" activeCellId="1" sqref="C301 B301"/>
+      <selection activeCell="B303" sqref="B303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5222,11 +5222,11 @@
       <c r="A302" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B302" s="10" t="s">
+      <c r="B302" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C302" s="1" t="s">
-        <v>3</v>
+      <c r="C302" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="B303" sqref="B303"/>
+    <sheetView tabSelected="1" topLeftCell="B302" workbookViewId="0">
+      <selection activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5233,11 +5233,11 @@
       <c r="A303" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B303" s="10" t="s">
+      <c r="B303" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C303" s="1" t="s">
-        <v>3</v>
+      <c r="C303" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
@@ -5266,11 +5266,11 @@
       <c r="A306" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B306" s="10" t="s">
+      <c r="B306" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C306" s="1" t="s">
-        <v>3</v>
+      <c r="C306" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B302" workbookViewId="0">
-      <selection activeCell="B306" sqref="B306"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5277,11 +5277,11 @@
       <c r="A307" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B307" s="10" t="s">
+      <c r="B307" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C307" s="1" t="s">
-        <v>3</v>
+      <c r="C307" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="C307" sqref="C307"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="B468" sqref="B468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5299,11 +5299,11 @@
       <c r="A309" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C309" s="1" t="s">
-        <v>3</v>
+      <c r="C309" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="B468" sqref="B468"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="C308" sqref="C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5288,11 +5288,11 @@
       <c r="A308" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B308" s="10" t="s">
+      <c r="B308" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C308" s="1" t="s">
-        <v>3</v>
+      <c r="C308" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="C308" sqref="C308"/>
+    <sheetView tabSelected="1" topLeftCell="B309" workbookViewId="0">
+      <selection activeCell="B316" sqref="B316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5376,11 +5376,11 @@
       <c r="A316" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B316" s="10" t="s">
+      <c r="B316" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="C316" s="1" t="s">
-        <v>3</v>
+      <c r="C316" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B309" workbookViewId="0">
-      <selection activeCell="B316" sqref="B316"/>
+    <sheetView tabSelected="1" topLeftCell="B312" workbookViewId="0">
+      <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5387,11 +5387,11 @@
       <c r="A317" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B317" s="10" t="s">
+      <c r="B317" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>3</v>
+      <c r="C317" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B312" workbookViewId="0">
-      <selection activeCell="C317" sqref="C317"/>
+    <sheetView tabSelected="1" topLeftCell="C305" workbookViewId="0">
+      <selection activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5310,11 +5310,11 @@
       <c r="A310" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="B310" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C310" s="1" t="s">
-        <v>3</v>
+      <c r="C310" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C305" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5618,11 +5618,11 @@
       <c r="A338" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B338" s="10" t="s">
+      <c r="B338" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="C338" s="1" t="s">
-        <v>3</v>
+      <c r="C338" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="21">

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -989,9 +989,6 @@
     <t>Implement a Circular queue</t>
   </si>
   <si>
-    <t>LRU Cache Implementationa</t>
-  </si>
-  <si>
     <t>Reverse a Queue using recursion</t>
   </si>
   <si>
@@ -1473,6 +1470,9 @@
   </si>
   <si>
     <t>Why strings are immutable in Javascript?</t>
+  </si>
+  <si>
+    <t>LRU Cache Implementation</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="C338" sqref="C338"/>
+    <sheetView tabSelected="1" topLeftCell="C319" workbookViewId="0">
+      <selection activeCell="C326" sqref="C326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2063,7 +2063,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" ht="45" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2080,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2094,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -2105,7 +2105,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -2116,7 +2116,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2127,7 +2127,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2138,7 +2138,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2149,7 +2149,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -2160,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2171,7 +2171,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2182,7 +2182,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2193,7 +2193,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2204,7 +2204,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2215,7 +2215,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2226,7 +2226,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2237,7 +2237,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
@@ -2248,7 +2248,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
@@ -2259,7 +2259,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
@@ -2270,7 +2270,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2281,7 +2281,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2292,7 +2292,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">
@@ -2303,7 +2303,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
@@ -2621,7 +2621,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2632,7 +2632,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2643,7 +2643,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2651,10 +2651,10 @@
         <v>52</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
@@ -2665,7 +2665,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
@@ -2676,7 +2676,7 @@
         <v>57</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
@@ -2698,7 +2698,7 @@
         <v>59</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
@@ -2720,7 +2720,7 @@
         <v>61</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21">
@@ -2731,7 +2731,7 @@
         <v>62</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21">
@@ -2742,7 +2742,7 @@
         <v>63</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21">
@@ -2753,7 +2753,7 @@
         <v>64</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21">
@@ -3102,7 +3102,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
@@ -3113,7 +3113,7 @@
         <v>97</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3124,7 +3124,7 @@
         <v>98</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="21">
@@ -3135,7 +3135,7 @@
         <v>99</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="21">
@@ -3168,7 +3168,7 @@
         <v>102</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="21">
@@ -3176,13 +3176,13 @@
         <v>95</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21">
@@ -3190,10 +3190,10 @@
         <v>95</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3204,7 +3204,7 @@
         <v>103</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="21">
@@ -3212,10 +3212,10 @@
         <v>95</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="21">
@@ -3223,10 +3223,10 @@
         <v>95</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21">
@@ -3234,7 +3234,7 @@
         <v>95</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
@@ -3248,7 +3248,7 @@
         <v>104</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">
@@ -3259,7 +3259,7 @@
         <v>105</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21">
@@ -3270,7 +3270,7 @@
         <v>106</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
@@ -3281,7 +3281,7 @@
         <v>107</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21">
@@ -3292,7 +3292,7 @@
         <v>108</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="21">
@@ -3303,7 +3303,7 @@
         <v>109</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="21">
@@ -3314,7 +3314,7 @@
         <v>110</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="21">
@@ -3560,7 +3560,7 @@
         <v>133</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
@@ -3571,7 +3571,7 @@
         <v>134</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
@@ -3582,7 +3582,7 @@
         <v>135</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
@@ -3593,7 +3593,7 @@
         <v>136</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
@@ -3604,7 +3604,7 @@
         <v>137</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
@@ -3615,7 +3615,7 @@
         <v>138</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
@@ -3626,7 +3626,7 @@
         <v>139</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
@@ -3637,7 +3637,7 @@
         <v>140</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
@@ -3648,7 +3648,7 @@
         <v>141</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21">
@@ -3659,7 +3659,7 @@
         <v>142</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
@@ -3670,7 +3670,7 @@
         <v>143</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
@@ -3681,7 +3681,7 @@
         <v>144</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="21">
@@ -3714,7 +3714,7 @@
         <v>147</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
@@ -3725,7 +3725,7 @@
         <v>148</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21">
@@ -3747,7 +3747,7 @@
         <v>150</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="21">
@@ -3758,7 +3758,7 @@
         <v>151</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21">
@@ -3769,7 +3769,7 @@
         <v>152</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21">
@@ -3780,7 +3780,7 @@
         <v>153</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21">
@@ -5215,7 +5215,7 @@
         <v>284</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
@@ -5226,7 +5226,7 @@
         <v>285</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">
@@ -5237,7 +5237,7 @@
         <v>286</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
@@ -5270,7 +5270,7 @@
         <v>289</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="21">
@@ -5281,7 +5281,7 @@
         <v>290</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">
@@ -5292,7 +5292,7 @@
         <v>291</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="21">
@@ -5303,7 +5303,7 @@
         <v>292</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="21">
@@ -5314,7 +5314,7 @@
         <v>293</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">
@@ -5380,7 +5380,7 @@
         <v>299</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="21">
@@ -5391,7 +5391,7 @@
         <v>300</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="21">
@@ -5486,11 +5486,11 @@
       <c r="A326" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B326" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>3</v>
+      <c r="B326" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="21">
@@ -5498,7 +5498,7 @@
         <v>283</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>3</v>
@@ -5509,7 +5509,7 @@
         <v>283</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>3</v>
@@ -5520,7 +5520,7 @@
         <v>283</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>3</v>
@@ -5531,7 +5531,7 @@
         <v>283</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>3</v>
@@ -5542,7 +5542,7 @@
         <v>283</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>3</v>
@@ -5553,7 +5553,7 @@
         <v>283</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>3</v>
@@ -5564,7 +5564,7 @@
         <v>283</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>3</v>
@@ -5575,7 +5575,7 @@
         <v>283</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>3</v>
@@ -5586,7 +5586,7 @@
         <v>283</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>3</v>
@@ -5597,7 +5597,7 @@
         <v>283</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>3</v>
@@ -5608,7 +5608,7 @@
         <v>283</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>3</v>
@@ -5619,10 +5619,10 @@
         <v>283</v>
       </c>
       <c r="B338" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="21">
@@ -5635,10 +5635,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B341" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="B341" s="10" t="s">
-        <v>323</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>3</v>
@@ -5646,10 +5646,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>3</v>
@@ -5657,10 +5657,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>3</v>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>3</v>
@@ -5679,10 +5679,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>3</v>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>3</v>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>3</v>
@@ -5712,10 +5712,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>3</v>
@@ -5723,10 +5723,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>3</v>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>3</v>
@@ -5745,10 +5745,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>3</v>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>3</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>3</v>
@@ -5778,10 +5778,10 @@
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="A354" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>3</v>
@@ -5789,10 +5789,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>3</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>3</v>
@@ -5811,10 +5811,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>3</v>
@@ -5822,10 +5822,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>3</v>
@@ -5841,10 +5841,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B361" s="10" t="s">
         <v>341</v>
-      </c>
-      <c r="B361" s="10" t="s">
-        <v>342</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>3</v>
@@ -5852,10 +5852,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>3</v>
@@ -5863,10 +5863,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>3</v>
@@ -5874,10 +5874,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>3</v>
@@ -5885,10 +5885,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>3</v>
@@ -5896,10 +5896,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>3</v>
@@ -5907,10 +5907,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>3</v>
@@ -5918,10 +5918,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>3</v>
@@ -5929,10 +5929,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>3</v>
@@ -5940,10 +5940,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>3</v>
@@ -5951,10 +5951,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>3</v>
@@ -5962,10 +5962,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>3</v>
@@ -5973,10 +5973,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>3</v>
@@ -5984,10 +5984,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>3</v>
@@ -5995,10 +5995,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>3</v>
@@ -6006,10 +6006,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>3</v>
@@ -6017,10 +6017,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>3</v>
@@ -6028,10 +6028,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>3</v>
@@ -6039,10 +6039,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>3</v>
@@ -6050,10 +6050,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>3</v>
@@ -6061,10 +6061,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>3</v>
@@ -6072,10 +6072,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>3</v>
@@ -6083,10 +6083,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>3</v>
@@ -6094,10 +6094,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>3</v>
@@ -6105,10 +6105,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>3</v>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>3</v>
@@ -6127,10 +6127,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>3</v>
@@ -6138,10 +6138,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>3</v>
@@ -6149,10 +6149,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>3</v>
@@ -6160,10 +6160,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>3</v>
@@ -6171,10 +6171,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>3</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>3</v>
@@ -6193,10 +6193,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>3</v>
@@ -6204,10 +6204,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>3</v>
@@ -6215,10 +6215,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>3</v>
@@ -6226,10 +6226,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>3</v>
@@ -6237,10 +6237,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>3</v>
@@ -6248,10 +6248,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>3</v>
@@ -6259,10 +6259,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>3</v>
@@ -6270,10 +6270,10 @@
     </row>
     <row r="400" spans="1:3" ht="21">
       <c r="A400" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>3</v>
@@ -6281,10 +6281,10 @@
     </row>
     <row r="401" spans="1:3" ht="21">
       <c r="A401" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>3</v>
@@ -6292,10 +6292,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>3</v>
@@ -6303,10 +6303,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>3</v>
@@ -6314,10 +6314,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>3</v>
@@ -6333,10 +6333,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B407" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="B407" s="10" t="s">
-        <v>386</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>3</v>
@@ -6344,10 +6344,10 @@
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="A408" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>3</v>
@@ -6355,10 +6355,10 @@
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>3</v>
@@ -6366,7 +6366,7 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B410" s="10" t="s">
         <v>87</v>
@@ -6377,10 +6377,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>3</v>
@@ -6388,10 +6388,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>3</v>
@@ -6407,32 +6407,32 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B415" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="B415" s="16" t="s">
-        <v>392</v>
-      </c>
       <c r="C415" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B416" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>3</v>
@@ -6440,10 +6440,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>3</v>
@@ -6451,10 +6451,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>3</v>
@@ -6462,10 +6462,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>3</v>
@@ -6473,32 +6473,32 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B421" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B422" s="16" t="s">
         <v>271</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>3</v>
@@ -6506,10 +6506,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>3</v>
@@ -6517,10 +6517,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>3</v>
@@ -6528,10 +6528,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>3</v>
@@ -6539,54 +6539,54 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B427" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B428" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B429" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B430" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>3</v>
@@ -6594,10 +6594,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>3</v>
@@ -6605,10 +6605,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>3</v>
@@ -6616,10 +6616,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>3</v>
@@ -6627,10 +6627,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>3</v>
@@ -6638,10 +6638,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B436" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>3</v>
@@ -6649,10 +6649,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B437" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>3</v>
@@ -6660,10 +6660,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>3</v>
@@ -6671,10 +6671,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>3</v>
@@ -6682,10 +6682,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>3</v>
@@ -6693,10 +6693,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>3</v>
@@ -6704,10 +6704,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>3</v>
@@ -6715,21 +6715,21 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B443" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>3</v>
@@ -6737,10 +6737,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>3</v>
@@ -6748,21 +6748,21 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B446" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>3</v>
@@ -6770,10 +6770,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>3</v>
@@ -6781,32 +6781,32 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B449" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B450" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>3</v>
@@ -6814,10 +6814,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>3</v>
@@ -6825,10 +6825,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>3</v>
@@ -6836,10 +6836,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B454" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>3</v>
@@ -6847,43 +6847,43 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B455" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B456" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B457" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>3</v>
@@ -6891,10 +6891,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>3</v>
@@ -6902,10 +6902,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>3</v>
@@ -6913,10 +6913,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B461" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>3</v>
@@ -6924,10 +6924,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>3</v>
@@ -6935,10 +6935,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>3</v>
@@ -6946,10 +6946,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>3</v>
@@ -6957,10 +6957,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B465" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>3</v>
@@ -6968,10 +6968,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>3</v>
@@ -6979,10 +6979,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>3</v>
@@ -6990,10 +6990,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>3</v>
@@ -7001,10 +7001,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>3</v>
@@ -7012,10 +7012,10 @@
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>3</v>
@@ -7023,10 +7023,10 @@
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>3</v>
@@ -7034,10 +7034,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>3</v>
@@ -7045,10 +7045,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>3</v>
@@ -7056,10 +7056,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>3</v>
@@ -7076,10 +7076,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B477" s="10" t="s">
         <v>451</v>
-      </c>
-      <c r="B477" s="10" t="s">
-        <v>452</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>3</v>
@@ -7087,10 +7087,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B478" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>3</v>
@@ -7098,10 +7098,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>3</v>
@@ -7109,10 +7109,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>3</v>
@@ -7120,10 +7120,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>3</v>
@@ -7131,10 +7131,10 @@
     </row>
     <row r="482" spans="1:3" ht="21">
       <c r="A482" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>3</v>
@@ -7142,10 +7142,10 @@
     </row>
     <row r="483" spans="1:3" ht="21">
       <c r="A483" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B483" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>3</v>
@@ -7153,10 +7153,10 @@
     </row>
     <row r="484" spans="1:3" ht="21">
       <c r="A484" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B484" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>3</v>
@@ -7164,10 +7164,10 @@
     </row>
     <row r="485" spans="1:3" ht="21">
       <c r="A485" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>3</v>
@@ -7175,10 +7175,10 @@
     </row>
     <row r="486" spans="1:3" ht="21">
       <c r="A486" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>3</v>
@@ -7498,7 +7498,7 @@
     <hyperlink ref="B323" r:id="rId292"/>
     <hyperlink ref="B324" r:id="rId293"/>
     <hyperlink ref="B325" r:id="rId294"/>
-    <hyperlink ref="B326" r:id="rId295"/>
+    <hyperlink ref="B326" r:id="rId295" display="LRU Cache Implementationa"/>
     <hyperlink ref="B327" r:id="rId296"/>
     <hyperlink ref="B328" r:id="rId297"/>
     <hyperlink ref="B329" r:id="rId298"/>

--- a/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
+++ b/Data Structure & Algorithms/SDE PREPARATION SHEET FOR CODING ROUND.xlsx
@@ -2039,7 +2039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C319" workbookViewId="0">
-      <selection activeCell="C326" sqref="C326"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5321,11 +5321,11 @@
       <c r="A311" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B311" s="10" t="s">
+      <c r="B311" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C311" s="1" t="s">
-        <v>3</v>
+      <c r="C311" s="8" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="21">
